--- a/tutorials/activity_browser/exercises/parametric_lca_v2.xlsx
+++ b/tutorials/activity_browser/exercises/parametric_lca_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF838E2-D081-4237-B19B-F22355B1C9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA63FF-5B57-4D19-896C-14462AFE6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="87">
   <si>
     <t>Activity</t>
   </si>
@@ -253,9 +253,6 @@
     <t>diesel_consumption*n2o_diesel</t>
   </si>
   <si>
-    <t>parametric_LCA_v1</t>
-  </si>
-  <si>
     <t>diesel_consumption*0</t>
   </si>
   <si>
@@ -287,6 +284,15 @@
   </si>
   <si>
     <t>electricity production, hydro, run-of-river</t>
+  </si>
+  <si>
+    <t>parametric_LCA_v2</t>
+  </si>
+  <si>
+    <t>electricity_consumption*electricity_wind_share</t>
+  </si>
+  <si>
+    <t>electricity_consumption*electricity_hydro_share</t>
   </si>
 </sst>
 </file>
@@ -749,7 +755,7 @@
   <dimension ref="A1:P334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -771,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -802,7 +808,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -827,13 +833,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -843,13 +849,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -859,13 +865,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1658,10 +1664,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -1919,7 +1925,7 @@
         <v>49</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="24">
         <v>0.19</v>
@@ -1950,7 +1956,7 @@
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
@@ -1961,7 +1967,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="24">
         <v>0.19</v>
@@ -1981,7 +1987,7 @@
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
@@ -2774,10 +2780,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -3253,7 +3259,7 @@
         <v>24</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
